--- a/python_tools/src/战斗文本.xlsx
+++ b/python_tools/src/战斗文本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nox\Documents\GitHub\pokeemerald-expansion-Chinese\python_tools\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E7E970-FB0E-443F-86A8-FC6C7B6C2295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D272E948-E8F1-465C-8C4B-672368151019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="2526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2617" uniqueCount="2527">
   <si>
     <t>sText_EmptyString4</t>
   </si>
@@ -7608,6 +7608,10 @@
   </si>
   <si>
     <t>因为Z力量，{B_SCR_NAME_WITH_PREFIX}\n将会回复来替换的宝可梦的HP！</t>
+  </si>
+  <si>
+    <t>汉化文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7952,8 +7956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C874"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="C464" sqref="C464"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7970,6 +7974,9 @@
       <c r="B1" t="s">
         <v>2392</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>2526</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
